--- a/measurements.xlsx
+++ b/measurements.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\src\win-ipc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="16485" windowHeight="9315"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="batching" sheetId="4" r:id="rId2"/>
     <sheet name="serialization" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -215,7 +210,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24891589965155672"/>
+          <c:y val="5.7388809182209472E-3"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -538,7 +540,7 @@
                   <c:v>307.48379999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>278.89950000000005</c:v>
+                  <c:v>1394.4974999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -721,11 +723,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="347612104"/>
-        <c:axId val="347612496"/>
+        <c:axId val="35768576"/>
+        <c:axId val="35928320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="347612104"/>
+        <c:axId val="35768576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -735,7 +737,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347612496"/>
+        <c:crossAx val="35928320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -743,7 +745,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="347612496"/>
+        <c:axId val="35928320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -761,26 +763,47 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Seconds</a:t>
+                  <a:t>Seconds (less</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> is better)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.52387532852288854"/>
+              <c:y val="0.92691527619305836"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347612104"/>
+        <c:crossAx val="35768576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.52644924050645658"/>
+          <c:y val="0.32278930700376945"/>
+          <c:w val="8.0154359167564054E-2"/>
+          <c:h val="0.1037756865757634"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -800,15 +823,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>750795</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>176338</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>185863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>260536</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>147763</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>119341</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>157288</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -873,7 +896,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -908,7 +931,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1119,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H69" sqref="F69:H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,11 +1543,11 @@
         <v>34</v>
       </c>
       <c r="E19">
-        <v>0.27889950000000002</v>
+        <v>1.3944974999999999</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>278.89950000000005</v>
+        <v>1394.4974999999999</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
